--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4416AE0B-8BE7-427C-B4CA-2C8A805D329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3330972-DEF3-4E5F-AA8A-65372FE7D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>Team 1</t>
   </si>
@@ -34,73 +34,58 @@
     <t>Winner</t>
   </si>
   <si>
-    <t>Team A</t>
-  </si>
-  <si>
-    <t>Team C</t>
-  </si>
-  <si>
-    <t>Team E</t>
-  </si>
-  <si>
-    <t>Team G</t>
-  </si>
-  <si>
-    <t>Team B</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>Team D</t>
-  </si>
-  <si>
-    <t>Team F</t>
-  </si>
-  <si>
-    <t>Team H</t>
-  </si>
-  <si>
-    <t>Team I</t>
-  </si>
-  <si>
-    <t>Draw</t>
-  </si>
-  <si>
-    <t>Team XXX</t>
-  </si>
-  <si>
-    <t>7-8</t>
-  </si>
-  <si>
-    <t>12-0</t>
-  </si>
-  <si>
-    <t>Team YYY</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>78-1</t>
+    <t>Mora A</t>
+  </si>
+  <si>
+    <t>Ruhuna</t>
+  </si>
+  <si>
+    <t>Not Played Yet</t>
+  </si>
+  <si>
+    <t>Kelani</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Wayamba</t>
+  </si>
+  <si>
+    <t>Japura</t>
+  </si>
+  <si>
+    <t>Rajarata</t>
+  </si>
+  <si>
+    <t>Mora B</t>
+  </si>
+  <si>
+    <t>WA 1st</t>
+  </si>
+  <si>
+    <t>WB 2nd</t>
+  </si>
+  <si>
+    <t>WB 1st</t>
+  </si>
+  <si>
+    <t>WA 2nd</t>
+  </si>
+  <si>
+    <t>37 Looser</t>
+  </si>
+  <si>
+    <t>38 Looser</t>
+  </si>
+  <si>
+    <t>37 Winner</t>
+  </si>
+  <si>
+    <t>38 Winner</t>
   </si>
 </sst>
 </file>
@@ -469,13 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -496,129 +486,229 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3330972-DEF3-4E5F-AA8A-65372FE7D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD7DE8-7FED-4AF3-BA39-A8A96037D0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,16 +76,16 @@
     <t>WA 2nd</t>
   </si>
   <si>
-    <t>37 Looser</t>
-  </si>
-  <si>
-    <t>38 Looser</t>
-  </si>
-  <si>
-    <t>37 Winner</t>
-  </si>
-  <si>
-    <t>38 Winner</t>
+    <t>SF1 Looser</t>
+  </si>
+  <si>
+    <t>SF2 Looser</t>
+  </si>
+  <si>
+    <t>SF1 Winner</t>
+  </si>
+  <si>
+    <t>SF2 Winner</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DD7DE8-7FED-4AF3-BA39-A8A96037D0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B114CAA1-D93B-42C2-A0E6-6299DD0E4BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>Team 1</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>SF2 Winner</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>0-0</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +495,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B114CAA1-D93B-42C2-A0E6-6299DD0E4BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39303599-5A43-499F-8758-E5912CE8501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>Team 1</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>0-0</t>
+  </si>
+  <si>
+    <t>1-0</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,9 +512,11 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39303599-5A43-499F-8758-E5912CE8501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579D2DA5-2098-4979-9A12-E00E472B92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>Team 1</t>
   </si>
@@ -466,7 +466,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,9 +526,11 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579D2DA5-2098-4979-9A12-E00E472B92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FC381-9861-4C65-B6E4-9A12433C408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Team 1</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>1-0</t>
+  </si>
+  <si>
+    <t>2-0</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,9 +543,11 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FC381-9861-4C65-B6E4-9A12433C408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4D06A-20E0-431A-A5CC-356469DDD06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Team 1</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,9 +557,11 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4D06A-20E0-431A-A5CC-356469DDD06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741316C4-11F1-41C2-A475-D981D8F14C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>2-0</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>0-1</t>
   </si>
 </sst>
 </file>
@@ -469,7 +475,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,9 +577,11 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -583,9 +591,11 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741316C4-11F1-41C2-A475-D981D8F14C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C273BD6-00A7-4462-966E-05D21D680E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,9 +605,11 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C273BD6-00A7-4462-966E-05D21D680E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA4222C-290A-43B2-BA66-26359BD9A579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,9 +619,11 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA4222C-290A-43B2-BA66-26359BD9A579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817F0A18-85F2-47A3-B805-2944E385603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,9 +633,11 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817F0A18-85F2-47A3-B805-2944E385603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1AFDCE-CD56-4A2A-B26A-2CC29FC974B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1AFDCE-CD56-4A2A-B26A-2CC29FC974B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C91E97A-FE51-4F0B-8E7F-D41E8248DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C91E97A-FE51-4F0B-8E7F-D41E8248DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2498BF35-3860-46F8-8BC0-948FCB08BBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +675,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2498BF35-3860-46F8-8BC0-948FCB08BBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89491DE-AC57-40D9-B812-C2A7346DBF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,7 +689,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -700,10 +703,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -711,10 +717,13 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -725,7 +734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -736,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -747,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89491DE-AC57-40D9-B812-C2A7346DBF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2909CBF7-F0BD-42AC-AA10-43355840894F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>Team 1</t>
   </si>
@@ -64,18 +64,6 @@
     <t>Mora B</t>
   </si>
   <si>
-    <t>WA 1st</t>
-  </si>
-  <si>
-    <t>WB 2nd</t>
-  </si>
-  <si>
-    <t>WB 1st</t>
-  </si>
-  <si>
-    <t>WA 2nd</t>
-  </si>
-  <si>
     <t>SF1 Looser</t>
   </si>
   <si>
@@ -104,6 +92,12 @@
   </si>
   <si>
     <t>0-1</t>
+  </si>
+  <si>
+    <t>SF 01 : Mora A</t>
+  </si>
+  <si>
+    <t>SF 02 : Colombo</t>
   </si>
 </sst>
 </file>
@@ -475,12 +469,12 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
   </cols>
@@ -507,10 +501,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -524,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -552,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,10 +557,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -580,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -594,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -608,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -619,10 +613,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -636,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -650,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -678,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -689,10 +683,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -706,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -717,18 +711,18 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -736,10 +730,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -747,10 +741,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -758,10 +752,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2909CBF7-F0BD-42AC-AA10-43355840894F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92781063-31BD-43E3-AB21-2D8E65B407FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>Team 1</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>SF 02 : Colombo</t>
+  </si>
+  <si>
+    <t>3-4</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +728,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92781063-31BD-43E3-AB21-2D8E65B407FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F0B48-38E2-44F4-9662-FCFD0F339B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
   <si>
     <t>Team 1</t>
   </si>
@@ -64,18 +64,6 @@
     <t>Mora B</t>
   </si>
   <si>
-    <t>SF1 Looser</t>
-  </si>
-  <si>
-    <t>SF2 Looser</t>
-  </si>
-  <si>
-    <t>SF1 Winner</t>
-  </si>
-  <si>
-    <t>SF2 Winner</t>
-  </si>
-  <si>
     <t>Draw</t>
   </si>
   <si>
@@ -101,6 +89,12 @@
   </si>
   <si>
     <t>3-4</t>
+  </si>
+  <si>
+    <t>3rd Place : Mora A</t>
+  </si>
+  <si>
+    <t>Final : Kelani</t>
   </si>
 </sst>
 </file>
@@ -472,7 +466,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,10 +498,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -521,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -532,10 +526,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -560,10 +554,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -577,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -591,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -605,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -616,10 +610,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -633,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -647,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -661,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -675,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -686,10 +680,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -703,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -714,15 +708,15 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -731,26 +725,29 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -758,10 +755,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F0B48-38E2-44F4-9662-FCFD0F339B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A44C5-79FD-4250-997E-606577E7076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <t>Team 1</t>
   </si>
@@ -466,7 +466,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +750,10 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">

--- a/history_girls.xlsx
+++ b/history_girls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCland\Desktop\mora9s-hockey-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A44C5-79FD-4250-997E-606577E7076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E2FC4-2CEB-49B9-8F36-8A1514A86FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Team 1</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Ruhuna</t>
   </si>
   <si>
-    <t>Not Played Yet</t>
-  </si>
-  <si>
     <t>Kelani</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Final : Kelani</t>
+  </si>
+  <si>
+    <t>0-2</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,80 +498,80 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -579,41 +579,41 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -621,41 +621,41 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -663,41 +663,41 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -705,66 +705,69 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
